--- a/products/assignments/project_management_week_3_planning(editing).xlsx
+++ b/products/assignments/project_management_week_3_planning(editing).xlsx
@@ -160,6 +160,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="BG10" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>Milestone 2:
+Delivering the two researchpapers and calculation report</t>
+        </r>
+      </text>
+    </comment>
     <comment ref="BT11" authorId="0" shapeId="0">
       <text>
         <r>
@@ -184,6 +198,20 @@
         </r>
       </text>
     </comment>
+    <comment ref="BU11" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Milestone 3:
+Attending and complete the first assessment. Failure is not an option.</t>
+        </r>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
@@ -480,7 +508,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="8" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +563,12 @@
       <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="10">
@@ -950,20 +984,20 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="20" xfId="2" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="21" xfId="2" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
   </cellXfs>
   <cellStyles count="8">
     <cellStyle name="Accent1" xfId="3" builtinId="29"/>
@@ -1281,7 +1315,7 @@
   <dimension ref="A1:EU42"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="BB22" sqref="BB22"/>
+      <selection activeCell="AO11" sqref="AO11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1388,13 +1422,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A1" s="79" t="s">
+      <c r="A1" s="74" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="79" t="s">
+      <c r="B1" s="74" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="79" t="s">
+      <c r="C1" s="74" t="s">
         <v>2</v>
       </c>
       <c r="D1" s="1"/>
@@ -1425,15 +1459,15 @@
       <c r="W1" s="77"/>
       <c r="X1" s="77"/>
       <c r="Y1" s="78"/>
-      <c r="Z1" s="81" t="s">
+      <c r="Z1" s="79" t="s">
         <v>10</v>
       </c>
-      <c r="AA1" s="82"/>
-      <c r="AB1" s="82"/>
-      <c r="AC1" s="82"/>
-      <c r="AD1" s="82"/>
-      <c r="AE1" s="82"/>
-      <c r="AF1" s="83"/>
+      <c r="AA1" s="80"/>
+      <c r="AB1" s="80"/>
+      <c r="AC1" s="80"/>
+      <c r="AD1" s="80"/>
+      <c r="AE1" s="80"/>
+      <c r="AF1" s="81"/>
       <c r="AG1" s="76" t="s">
         <v>11</v>
       </c>
@@ -1470,15 +1504,15 @@
       <c r="BF1" s="77"/>
       <c r="BG1" s="77"/>
       <c r="BH1" s="78"/>
-      <c r="BI1" s="81" t="s">
+      <c r="BI1" s="79" t="s">
         <v>15</v>
       </c>
-      <c r="BJ1" s="82"/>
-      <c r="BK1" s="82"/>
-      <c r="BL1" s="82"/>
-      <c r="BM1" s="82"/>
-      <c r="BN1" s="82"/>
-      <c r="BO1" s="83"/>
+      <c r="BJ1" s="80"/>
+      <c r="BK1" s="80"/>
+      <c r="BL1" s="80"/>
+      <c r="BM1" s="80"/>
+      <c r="BN1" s="80"/>
+      <c r="BO1" s="81"/>
       <c r="BP1" s="76" t="s">
         <v>16</v>
       </c>
@@ -1497,101 +1531,101 @@
       <c r="CA1" s="77"/>
       <c r="CB1" s="77"/>
       <c r="CC1" s="78"/>
-      <c r="CD1" s="74" t="s">
+      <c r="CD1" s="82" t="s">
         <v>18</v>
       </c>
-      <c r="CE1" s="74"/>
-      <c r="CF1" s="74"/>
-      <c r="CG1" s="74"/>
-      <c r="CH1" s="74"/>
-      <c r="CI1" s="74"/>
-      <c r="CJ1" s="74"/>
-      <c r="CK1" s="74" t="s">
+      <c r="CE1" s="82"/>
+      <c r="CF1" s="82"/>
+      <c r="CG1" s="82"/>
+      <c r="CH1" s="82"/>
+      <c r="CI1" s="82"/>
+      <c r="CJ1" s="82"/>
+      <c r="CK1" s="82" t="s">
         <v>38</v>
       </c>
-      <c r="CL1" s="74"/>
-      <c r="CM1" s="74"/>
-      <c r="CN1" s="74"/>
-      <c r="CO1" s="74"/>
-      <c r="CP1" s="74"/>
-      <c r="CQ1" s="74"/>
-      <c r="CR1" s="74" t="s">
+      <c r="CL1" s="82"/>
+      <c r="CM1" s="82"/>
+      <c r="CN1" s="82"/>
+      <c r="CO1" s="82"/>
+      <c r="CP1" s="82"/>
+      <c r="CQ1" s="82"/>
+      <c r="CR1" s="82" t="s">
         <v>39</v>
       </c>
-      <c r="CS1" s="74"/>
-      <c r="CT1" s="74"/>
-      <c r="CU1" s="74"/>
-      <c r="CV1" s="74"/>
-      <c r="CW1" s="74"/>
-      <c r="CX1" s="74"/>
-      <c r="CY1" s="75" t="s">
+      <c r="CS1" s="82"/>
+      <c r="CT1" s="82"/>
+      <c r="CU1" s="82"/>
+      <c r="CV1" s="82"/>
+      <c r="CW1" s="82"/>
+      <c r="CX1" s="82"/>
+      <c r="CY1" s="83" t="s">
         <v>40</v>
       </c>
-      <c r="CZ1" s="75"/>
-      <c r="DA1" s="75"/>
-      <c r="DB1" s="75"/>
-      <c r="DC1" s="75"/>
-      <c r="DD1" s="75"/>
-      <c r="DE1" s="75"/>
-      <c r="DF1" s="74" t="s">
+      <c r="CZ1" s="83"/>
+      <c r="DA1" s="83"/>
+      <c r="DB1" s="83"/>
+      <c r="DC1" s="83"/>
+      <c r="DD1" s="83"/>
+      <c r="DE1" s="83"/>
+      <c r="DF1" s="82" t="s">
         <v>41</v>
       </c>
-      <c r="DG1" s="74"/>
-      <c r="DH1" s="74"/>
-      <c r="DI1" s="74"/>
-      <c r="DJ1" s="74"/>
-      <c r="DK1" s="74"/>
-      <c r="DL1" s="74"/>
-      <c r="DM1" s="74" t="s">
+      <c r="DG1" s="82"/>
+      <c r="DH1" s="82"/>
+      <c r="DI1" s="82"/>
+      <c r="DJ1" s="82"/>
+      <c r="DK1" s="82"/>
+      <c r="DL1" s="82"/>
+      <c r="DM1" s="82" t="s">
         <v>42</v>
       </c>
-      <c r="DN1" s="74"/>
-      <c r="DO1" s="74"/>
-      <c r="DP1" s="74"/>
-      <c r="DQ1" s="74"/>
-      <c r="DR1" s="74"/>
-      <c r="DS1" s="74"/>
-      <c r="DT1" s="74" t="s">
+      <c r="DN1" s="82"/>
+      <c r="DO1" s="82"/>
+      <c r="DP1" s="82"/>
+      <c r="DQ1" s="82"/>
+      <c r="DR1" s="82"/>
+      <c r="DS1" s="82"/>
+      <c r="DT1" s="82" t="s">
         <v>43</v>
       </c>
-      <c r="DU1" s="74"/>
-      <c r="DV1" s="74"/>
-      <c r="DW1" s="74"/>
-      <c r="DX1" s="74"/>
-      <c r="DY1" s="74"/>
-      <c r="DZ1" s="74"/>
-      <c r="EA1" s="74" t="s">
+      <c r="DU1" s="82"/>
+      <c r="DV1" s="82"/>
+      <c r="DW1" s="82"/>
+      <c r="DX1" s="82"/>
+      <c r="DY1" s="82"/>
+      <c r="DZ1" s="82"/>
+      <c r="EA1" s="82" t="s">
         <v>44</v>
       </c>
-      <c r="EB1" s="74"/>
-      <c r="EC1" s="74"/>
-      <c r="ED1" s="74"/>
-      <c r="EE1" s="74"/>
-      <c r="EF1" s="74"/>
-      <c r="EG1" s="74"/>
-      <c r="EH1" s="75" t="s">
+      <c r="EB1" s="82"/>
+      <c r="EC1" s="82"/>
+      <c r="ED1" s="82"/>
+      <c r="EE1" s="82"/>
+      <c r="EF1" s="82"/>
+      <c r="EG1" s="82"/>
+      <c r="EH1" s="83" t="s">
         <v>45</v>
       </c>
-      <c r="EI1" s="75"/>
-      <c r="EJ1" s="75"/>
-      <c r="EK1" s="75"/>
-      <c r="EL1" s="75"/>
-      <c r="EM1" s="75"/>
-      <c r="EN1" s="75"/>
-      <c r="EO1" s="74" t="s">
+      <c r="EI1" s="83"/>
+      <c r="EJ1" s="83"/>
+      <c r="EK1" s="83"/>
+      <c r="EL1" s="83"/>
+      <c r="EM1" s="83"/>
+      <c r="EN1" s="83"/>
+      <c r="EO1" s="82" t="s">
         <v>46</v>
       </c>
-      <c r="EP1" s="74"/>
-      <c r="EQ1" s="74"/>
-      <c r="ER1" s="74"/>
-      <c r="ES1" s="74"/>
-      <c r="ET1" s="74"/>
-      <c r="EU1" s="74"/>
+      <c r="EP1" s="82"/>
+      <c r="EQ1" s="82"/>
+      <c r="ER1" s="82"/>
+      <c r="ES1" s="82"/>
+      <c r="ET1" s="82"/>
+      <c r="EU1" s="82"/>
     </row>
     <row r="2" spans="1:151" x14ac:dyDescent="0.25">
-      <c r="A2" s="80"/>
-      <c r="B2" s="80"/>
-      <c r="C2" s="80"/>
+      <c r="A2" s="75"/>
+      <c r="B2" s="75"/>
+      <c r="C2" s="75"/>
       <c r="D2" s="9" t="s">
         <v>3</v>
       </c>
@@ -6862,6 +6896,18 @@
     </row>
   </sheetData>
   <mergeCells count="24">
+    <mergeCell ref="EO1:EU1"/>
+    <mergeCell ref="CY1:DE1"/>
+    <mergeCell ref="DF1:DL1"/>
+    <mergeCell ref="DM1:DS1"/>
+    <mergeCell ref="DT1:DZ1"/>
+    <mergeCell ref="EA1:EG1"/>
+    <mergeCell ref="EH1:EN1"/>
+    <mergeCell ref="CD1:CJ1"/>
+    <mergeCell ref="CK1:CQ1"/>
+    <mergeCell ref="CR1:CX1"/>
+    <mergeCell ref="BP1:BV1"/>
+    <mergeCell ref="BW1:CC1"/>
     <mergeCell ref="A1:A2"/>
     <mergeCell ref="S1:Y1"/>
     <mergeCell ref="BI1:BO1"/>
@@ -6874,18 +6920,6 @@
     <mergeCell ref="AN1:AT1"/>
     <mergeCell ref="AU1:BA1"/>
     <mergeCell ref="BB1:BH1"/>
-    <mergeCell ref="CD1:CJ1"/>
-    <mergeCell ref="CK1:CQ1"/>
-    <mergeCell ref="CR1:CX1"/>
-    <mergeCell ref="BP1:BV1"/>
-    <mergeCell ref="BW1:CC1"/>
-    <mergeCell ref="EO1:EU1"/>
-    <mergeCell ref="CY1:DE1"/>
-    <mergeCell ref="DF1:DL1"/>
-    <mergeCell ref="DM1:DS1"/>
-    <mergeCell ref="DT1:DZ1"/>
-    <mergeCell ref="EA1:EG1"/>
-    <mergeCell ref="EH1:EN1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
